--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1194373.393229323</v>
+        <v>-1196271.625333447</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>327.7268593084456</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>65.79265254338311</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>158.2908110542285</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>56.8023664990796</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>36.78424627109328</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>56.49576810820431</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>217.9265970875839</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>349.0797868789228</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.58915559857829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>356.0499371767997</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.1147351779911</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4.610500377443533</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>93.6984469626819</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>101.0041688483411</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>147.1163355383938</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.26584747916407</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185857</v>
       </c>
     </row>
     <row r="17">
@@ -1850,10 +1850,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>90.15573371553786</v>
+        <v>234.1231749377856</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>62.742365442944</v>
       </c>
       <c r="U22" t="n">
-        <v>162.554918562218</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.27280160611539</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>101.289814786355</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>4.590102441477294</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463175</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224538</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463105</v>
+        <v>42.28735533463175</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1341.294330781294</v>
+        <v>1466.92570294771</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>1097.963186007298</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>1097.963186007298</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>712.1749334090541</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2630.691866226926</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2470.802158091342</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2470.802158091342</v>
+        <v>2209.833690193636</v>
       </c>
       <c r="W2" t="n">
-        <v>2118.033502821228</v>
+        <v>1857.065034923522</v>
       </c>
       <c r="X2" t="n">
-        <v>2118.033502821228</v>
+        <v>1857.065034923522</v>
       </c>
       <c r="Y2" t="n">
-        <v>1727.894170845416</v>
+        <v>1466.92570294771</v>
       </c>
     </row>
     <row r="3">
@@ -4407,13 +4407,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>509.3247150619588</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="W4" t="n">
-        <v>690.9731798921986</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="X4" t="n">
-        <v>690.9731798921986</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="Y4" t="n">
-        <v>690.9731798921986</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1018.106519274536</v>
+        <v>1366.188433646013</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>402.0066065949741</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2092.422847177207</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.845691314469</v>
+        <v>1366.188433646013</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.706359338657</v>
+        <v>1366.188433646013</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.200144220494</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628418</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628418</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W7" t="n">
-        <v>323.2572191628418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>323.2572191628418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.591755944065</v>
+        <v>1645.450628940881</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.629239003653</v>
+        <v>1276.488112000469</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.363540396903</v>
+        <v>918.2224133937186</v>
       </c>
       <c r="E8" t="n">
-        <v>824.5752877986586</v>
+        <v>532.4341607954743</v>
       </c>
       <c r="F8" t="n">
-        <v>413.589383009051</v>
+        <v>525.4886600462709</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>511.5652559848618</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>2035.589960916692</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>2035.589960916692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.591755944065</v>
+        <v>1645.450628940881</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>398.3338608103785</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C10" t="n">
-        <v>398.3338608103785</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D10" t="n">
-        <v>398.3338608103785</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E10" t="n">
-        <v>398.3338608103785</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4999,13 +4999,13 @@
         <v>579.9823256406182</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>485.3374297187173</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406182</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,31 +5024,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.499100520942</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5355,19 +5355,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2013.406634128704</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>282.2470670630133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>282.2470670630133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>731.0291971045608</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>503.0396462065435</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>282.2470670630133</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5507,58 +5507,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>1296.774769427265</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W19" t="n">
-        <v>1007.357599390305</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>779.3680484922876</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>558.5754693487575</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
@@ -5838,13 +5838,13 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.799373036871</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V22" t="n">
-        <v>1134.799373036871</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>1134.799373036871</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>1134.799373036871</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>914.0067938933407</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,10 +5990,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6014,10 +6014,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6072,19 +6072,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.27469227828</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
-        <v>2315.738453580939</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6172,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>1098.712528333286</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W25" t="n">
-        <v>809.2953582963255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>809.2953582963255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>588.5027791527954</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,49 +6209,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>399.1615145228562</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>909.3712637033469</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>619.9540936663864</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>619.9540936663864</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>399.1615145228562</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6467,16 +6467,16 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6506,7 +6506,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6777,19 +6777,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>485.404702608941</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>732.169830515405</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O33" t="n">
         <v>2123.441607278215</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,19 +6935,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7087,7 +7087,7 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7123,22 +7123,22 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045201</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010311</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7312,7 +7312,7 @@
         <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083207</v>
@@ -7321,43 +7321,43 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010319</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,49 +7394,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7549,10 +7549,10 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,7 +7564,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7603,7 +7603,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,16 +7734,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504518</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>43.65987261462533</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>104.6241510367947</v>
       </c>
       <c r="O15" t="n">
-        <v>38.86002301949912</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>39.88923345256785</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,16 +9486,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,22 +9720,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>15.83804904622852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>199.7396287231151</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>62.79465928983132</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>369.0893880493729</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>73.53204524669994</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>15.83804904622866</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,13 +11066,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,28 +11139,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>286.5092576192343</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>22.04402060665578</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>79.1491864332659</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>92.93335645406076</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>185.2331835502363</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.46831781370096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>114.3496255390483</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>185.2331835502362</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23938,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>161.9819096082902</v>
+        <v>18.01446838604238</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>158.8051956154453</v>
       </c>
       <c r="U22" t="n">
-        <v>123.6824338363593</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>117.5591785758219</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,19 +24412,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>185.233183550236</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>162.6567186571505</v>
+        <v>51.71984429841025</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-4.334310688136611e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.771116669464391e-13</v>
+        <v>-4.334310688136611e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1245999.414104647</v>
+        <v>1245999.414104646</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1245999.414104646</v>
+        <v>1245999.414104647</v>
       </c>
     </row>
     <row r="9">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142387.7480708447</v>
+        <v>142387.7480708446</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
         <v>143682.3097262497</v>
@@ -26323,34 +26323,34 @@
         <v>136860.1709081981</v>
       </c>
       <c r="F2" t="n">
-        <v>136860.1709081982</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="G2" t="n">
         <v>136860.1709081981</v>
       </c>
       <c r="H2" t="n">
-        <v>136860.1709081982</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="I2" t="n">
         <v>136860.1709081981</v>
       </c>
       <c r="J2" t="n">
-        <v>136860.1709081982</v>
+        <v>136860.170908198</v>
       </c>
       <c r="K2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262491</v>
+        <v>143682.3097262493</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262494</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262494</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152552.7115643755</v>
+        <v>152552.7115643754</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26430,10 +26430,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,13 +26442,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
+        <v>37464.4568627596</v>
+      </c>
+      <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="L4" t="n">
-        <v>37464.45686275957</v>
-      </c>
       <c r="M4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275957</v>
@@ -26482,7 +26482,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26503,13 +26503,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-682991.9207714846</v>
+        <v>-683010.414509419</v>
       </c>
       <c r="C6" t="n">
-        <v>-95951.72658838247</v>
+        <v>-95951.72658838241</v>
       </c>
       <c r="D6" t="n">
         <v>-95951.72658838239</v>
       </c>
       <c r="E6" t="n">
-        <v>-495332.8611388537</v>
+        <v>-495430.3202648259</v>
       </c>
       <c r="F6" t="n">
-        <v>29827.17533804245</v>
+        <v>29729.71621207023</v>
       </c>
       <c r="G6" t="n">
-        <v>29827.17533804239</v>
+        <v>29729.71621207024</v>
       </c>
       <c r="H6" t="n">
-        <v>29827.17533804243</v>
+        <v>29729.71621207023</v>
       </c>
       <c r="I6" t="n">
-        <v>29827.17533804232</v>
+        <v>29729.71621207018</v>
       </c>
       <c r="J6" t="n">
-        <v>-146596.0438545505</v>
+        <v>-146693.5029805229</v>
       </c>
       <c r="K6" t="n">
         <v>-46002.76506024784</v>
       </c>
       <c r="L6" t="n">
-        <v>8502.747043464144</v>
+        <v>8502.747043464333</v>
       </c>
       <c r="M6" t="n">
-        <v>-126298.2681903726</v>
+        <v>-126298.2681903724</v>
       </c>
       <c r="N6" t="n">
-        <v>8502.747043464406</v>
+        <v>8502.747043464449</v>
       </c>
       <c r="O6" t="n">
-        <v>8502.747043464653</v>
+        <v>8502.747043464464</v>
       </c>
       <c r="P6" t="n">
-        <v>-46002.76506024809</v>
+        <v>-46002.7650602481</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26750,7 +26750,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26762,22 +26762,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>150.6556678142747</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>270.9498919710553</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>249.7387520654977</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>162.0888852438905</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>147.3462946834236</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>20.65131379954624</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>17.64056718375448</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>176.9954977535165</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>57.7342328439953</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>22.80803758636608</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>140.8105476454877</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>192.8245513739091</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28570,10 +28570,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -35018,10 +35018,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>326.0235748557334</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>437.8187244348076</v>
       </c>
       <c r="O15" t="n">
-        <v>321.2237252606072</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>373.0838068505807</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>387.238612517683</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507413</v>
@@ -36358,7 +36358,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>222.9314639777532</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>287.7526615081892</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36683,19 +36683,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>269.888074221356</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>702.2839614473859</v>
+        <v>513.2182750716003</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>224.1074838346392</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>595.5275127043998</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>492.1965505854582</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>326.2624260966949</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>568.8729598603425</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,16 +38017,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>229.1374355381804</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
